--- a/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T12:22:43+00:00</t>
+    <t>2025-03-12T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T12:30:26+00:00</t>
+    <t>2025-03-12T15:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T15:46:35+00:00</t>
+    <t>2025-03-12T15:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,7 +256,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/no-basis-HumanName
+    <t xml:space="preserve">http://hl7.no/fhir/ig/TestHelseNIM/StructureDefinition/Norsk-Navn
 </t>
   </si>
   <si>
@@ -609,7 +609,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.4921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="60.82421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T15:49:50+00:00</t>
+    <t>2025-03-12T15:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,7 +250,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>Norsk-Pasient.name</t>
+    <t>Norsk-Pasient.navn</t>
   </si>
   <si>
     <t>Y</t>
@@ -599,8 +599,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.26953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -630,7 +630,7 @@
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="19.453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.26953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>

--- a/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T15:55:13+00:00</t>
+    <t>2025-03-13T07:41:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T07:41:16+00:00</t>
+    <t>2025-03-13T07:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T07:44:38+00:00</t>
+    <t>2025-03-17T07:22:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -286,6 +286,19 @@
   </si>
   <si>
     <t>HL7 Administrative Gender</t>
+  </si>
+  <si>
+    <t>Norsk-Pasient.sivilstatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Sivilstatus</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
   </si>
 </sst>
 </file>
@@ -590,7 +603,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -599,8 +612,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.26953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.45703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.45703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -630,7 +643,7 @@
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="19.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1046,6 +1059,104 @@
         <v>73</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Pasient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T07:22:22+00:00</t>
+    <t>2025-03-17T12:25:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
